--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.27358836533244</v>
+        <v>1.318558</v>
       </c>
       <c r="H2">
-        <v>4.27358836533244</v>
+        <v>3.955674</v>
       </c>
       <c r="I2">
-        <v>0.5419845440866665</v>
+        <v>0.127073445927672</v>
       </c>
       <c r="J2">
-        <v>0.5419845440866665</v>
+        <v>0.1270734459276719</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.597153041253962</v>
+        <v>0.09880833333333333</v>
       </c>
       <c r="N2">
-        <v>0.597153041253962</v>
+        <v>0.296425</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1308359775655526</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1308359775655526</v>
       </c>
       <c r="Q2">
-        <v>2.551986289425814</v>
+        <v>0.1302845183833334</v>
       </c>
       <c r="R2">
-        <v>2.551986289425814</v>
+        <v>1.17256066545</v>
       </c>
       <c r="S2">
-        <v>0.5419845440866665</v>
+        <v>0.01662577852057036</v>
       </c>
       <c r="T2">
-        <v>0.5419845440866665</v>
+        <v>0.01662577852057035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.61148587148762</v>
+        <v>1.318558</v>
       </c>
       <c r="H3">
-        <v>3.61148587148762</v>
+        <v>3.955674</v>
       </c>
       <c r="I3">
-        <v>0.4580154559133335</v>
+        <v>0.127073445927672</v>
       </c>
       <c r="J3">
-        <v>0.4580154559133335</v>
+        <v>0.1270734459276719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.597153041253962</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N3">
-        <v>0.597153041253962</v>
+        <v>0.161182</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.07114246280162233</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07114246280162234</v>
       </c>
       <c r="Q3">
-        <v>2.156609771604547</v>
+        <v>0.07084260518533333</v>
       </c>
       <c r="R3">
-        <v>2.156609771604547</v>
+        <v>0.637583446668</v>
       </c>
       <c r="S3">
-        <v>0.4580154559133335</v>
+        <v>0.009040317899983372</v>
       </c>
       <c r="T3">
-        <v>0.4580154559133335</v>
+        <v>0.00904031789998337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.318558</v>
+      </c>
+      <c r="H4">
+        <v>3.955674</v>
+      </c>
+      <c r="I4">
+        <v>0.127073445927672</v>
+      </c>
+      <c r="J4">
+        <v>0.1270734459276719</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.602672</v>
+      </c>
+      <c r="N4">
+        <v>1.808016</v>
+      </c>
+      <c r="O4">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P4">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q4">
+        <v>0.7946579869760001</v>
+      </c>
+      <c r="R4">
+        <v>7.151921882783999</v>
+      </c>
+      <c r="S4">
+        <v>0.1014073495071183</v>
+      </c>
+      <c r="T4">
+        <v>0.1014073495071182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.617188333333334</v>
+      </c>
+      <c r="H5">
+        <v>13.851565</v>
+      </c>
+      <c r="I5">
+        <v>0.4449724866207715</v>
+      </c>
+      <c r="J5">
+        <v>0.4449724866207714</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.296425</v>
+      </c>
+      <c r="O5">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P5">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q5">
+        <v>0.4562166839027778</v>
+      </c>
+      <c r="R5">
+        <v>4.105950155125</v>
+      </c>
+      <c r="S5">
+        <v>0.05821841027680343</v>
+      </c>
+      <c r="T5">
+        <v>0.05821841027680342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.617188333333334</v>
+      </c>
+      <c r="H6">
+        <v>13.851565</v>
+      </c>
+      <c r="I6">
+        <v>0.4449724866207715</v>
+      </c>
+      <c r="J6">
+        <v>0.4449724866207714</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.161182</v>
+      </c>
+      <c r="O6">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P6">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q6">
+        <v>0.2480692166477778</v>
+      </c>
+      <c r="R6">
+        <v>2.23262294983</v>
+      </c>
+      <c r="S6">
+        <v>0.03165643857716363</v>
+      </c>
+      <c r="T6">
+        <v>0.03165643857716362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.617188333333334</v>
+      </c>
+      <c r="H7">
+        <v>13.851565</v>
+      </c>
+      <c r="I7">
+        <v>0.4449724866207715</v>
+      </c>
+      <c r="J7">
+        <v>0.4449724866207714</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.602672</v>
+      </c>
+      <c r="N7">
+        <v>1.808016</v>
+      </c>
+      <c r="O7">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P7">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q7">
+        <v>2.782650127226667</v>
+      </c>
+      <c r="R7">
+        <v>25.04385114504</v>
+      </c>
+      <c r="S7">
+        <v>0.3550976377668045</v>
+      </c>
+      <c r="T7">
+        <v>0.3550976377668044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2083843333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.625153</v>
+      </c>
+      <c r="I8">
+        <v>0.02008263217394101</v>
+      </c>
+      <c r="J8">
+        <v>0.020082632173941</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.296425</v>
+      </c>
+      <c r="O8">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P8">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q8">
+        <v>0.02059010866944444</v>
+      </c>
+      <c r="R8">
+        <v>0.185310978025</v>
+      </c>
+      <c r="S8">
+        <v>0.002627530812566991</v>
+      </c>
+      <c r="T8">
+        <v>0.002627530812566991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2083843333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.625153</v>
+      </c>
+      <c r="I9">
+        <v>0.02008263217394101</v>
+      </c>
+      <c r="J9">
+        <v>0.020082632173941</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.161182</v>
+      </c>
+      <c r="O9">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P9">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q9">
+        <v>0.01119593453844444</v>
+      </c>
+      <c r="R9">
+        <v>0.100763410846</v>
+      </c>
+      <c r="S9">
+        <v>0.001428727912393262</v>
+      </c>
+      <c r="T9">
+        <v>0.001428727912393262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2083843333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.625153</v>
+      </c>
+      <c r="I10">
+        <v>0.02008263217394101</v>
+      </c>
+      <c r="J10">
+        <v>0.020082632173941</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.602672</v>
+      </c>
+      <c r="N10">
+        <v>1.808016</v>
+      </c>
+      <c r="O10">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P10">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q10">
+        <v>0.1255874029386667</v>
+      </c>
+      <c r="R10">
+        <v>1.130286626448</v>
+      </c>
+      <c r="S10">
+        <v>0.01602637344898076</v>
+      </c>
+      <c r="T10">
+        <v>0.01602637344898075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04501266666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.135038</v>
+      </c>
+      <c r="I11">
+        <v>0.004338007629339771</v>
+      </c>
+      <c r="J11">
+        <v>0.00433800762933977</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.296425</v>
+      </c>
+      <c r="O11">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P11">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q11">
+        <v>0.004447626572222222</v>
+      </c>
+      <c r="R11">
+        <v>0.04002863915</v>
+      </c>
+      <c r="S11">
+        <v>0.0005675674688714944</v>
+      </c>
+      <c r="T11">
+        <v>0.0005675674688714943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04501266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.135038</v>
+      </c>
+      <c r="I12">
+        <v>0.004338007629339771</v>
+      </c>
+      <c r="J12">
+        <v>0.00433800762933977</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.161182</v>
+      </c>
+      <c r="O12">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P12">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q12">
+        <v>0.002418410546222222</v>
+      </c>
+      <c r="R12">
+        <v>0.021765694916</v>
+      </c>
+      <c r="S12">
+        <v>0.0003086165464034585</v>
+      </c>
+      <c r="T12">
+        <v>0.0003086165464034585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04501266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.135038</v>
+      </c>
+      <c r="I13">
+        <v>0.004338007629339771</v>
+      </c>
+      <c r="J13">
+        <v>0.00433800762933977</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.602672</v>
+      </c>
+      <c r="N13">
+        <v>1.808016</v>
+      </c>
+      <c r="O13">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P13">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q13">
+        <v>0.02712787384533333</v>
+      </c>
+      <c r="R13">
+        <v>0.244150864608</v>
+      </c>
+      <c r="S13">
+        <v>0.003461823614064818</v>
+      </c>
+      <c r="T13">
+        <v>0.003461823614064817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.187202333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.561607</v>
+      </c>
+      <c r="I14">
+        <v>0.4035334276482758</v>
+      </c>
+      <c r="J14">
+        <v>0.4035334276482757</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.296425</v>
+      </c>
+      <c r="O14">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P14">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q14">
+        <v>0.4137304838861111</v>
+      </c>
+      <c r="R14">
+        <v>3.723574354974999</v>
+      </c>
+      <c r="S14">
+        <v>0.05279669048674036</v>
+      </c>
+      <c r="T14">
+        <v>0.05279669048674036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.187202333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.561607</v>
+      </c>
+      <c r="I15">
+        <v>0.4035334276482758</v>
+      </c>
+      <c r="J15">
+        <v>0.4035334276482757</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.161182</v>
+      </c>
+      <c r="O15">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P15">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q15">
+        <v>0.224967215497111</v>
+      </c>
+      <c r="R15">
+        <v>2.024704939474</v>
+      </c>
+      <c r="S15">
+        <v>0.02870836186567861</v>
+      </c>
+      <c r="T15">
+        <v>0.02870836186567861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.187202333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.561607</v>
+      </c>
+      <c r="I16">
+        <v>0.4035334276482758</v>
+      </c>
+      <c r="J16">
+        <v>0.4035334276482757</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.602672</v>
+      </c>
+      <c r="N16">
+        <v>1.808016</v>
+      </c>
+      <c r="O16">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P16">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q16">
+        <v>2.523509604634666</v>
+      </c>
+      <c r="R16">
+        <v>22.711586441712</v>
+      </c>
+      <c r="S16">
+        <v>0.3220283752958568</v>
+      </c>
+      <c r="T16">
+        <v>0.3220283752958568</v>
       </c>
     </row>
   </sheetData>
